--- a/reportes/reporte_zona_55_Tesorería.xlsx
+++ b/reportes/reporte_zona_55_Tesorería.xlsx
@@ -28,7 +28,7 @@
     <t>Dinero Extraído</t>
   </si>
   <si>
-    <t>2024-10-18 15:09:14</t>
+    <t>2024-10-22 19:30:18</t>
   </si>
   <si>
     <t>480103</t>

--- a/reportes/reporte_zona_55_Tesorería.xlsx
+++ b/reportes/reporte_zona_55_Tesorería.xlsx
@@ -28,7 +28,7 @@
     <t>Dinero Extraído</t>
   </si>
   <si>
-    <t>2024-10-22 19:30:18</t>
+    <t>2024-10-23 18:34:19</t>
   </si>
   <si>
     <t>480103</t>

--- a/reportes/reporte_zona_55_Tesorería.xlsx
+++ b/reportes/reporte_zona_55_Tesorería.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Reporte de Novedades de Máquinas en Extracciones de Dinero - Zona 55</t>
   </si>
@@ -28,16 +28,22 @@
     <t>Dinero Extraído</t>
   </si>
   <si>
-    <t>2024-10-23 18:34:19</t>
+    <t>332830</t>
   </si>
   <si>
     <t>480103</t>
   </si>
   <si>
+    <t>200.00</t>
+  </si>
+  <si>
     <t>Total Extraído</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>0200.00</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -110,6 +116,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -490,31 +499,31 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="4">
+        <v>45590.191782407404</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>332830</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
-        <v>200</v>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>200</v>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/reportes/reporte_zona_55_Tesorería.xlsx
+++ b/reportes/reporte_zona_55_Tesorería.xlsx
@@ -500,7 +500,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45590.191782407404</v>
+        <v>45590.29068287037</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>

--- a/reportes/reporte_zona_55_Tesorería.xlsx
+++ b/reportes/reporte_zona_55_Tesorería.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Reporte de Novedades de Máquinas en Extracciones de Dinero - Zona 55</t>
   </si>
@@ -34,22 +34,19 @@
     <t>480103</t>
   </si>
   <si>
-    <t>200.00</t>
-  </si>
-  <si>
     <t>Total Extraído</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>0200.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -107,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -124,7 +121,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +503,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>45590.29068287037</v>
+        <v>45592.325891203705</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -508,22 +511,22 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
+      <c r="D5" s="6">
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
